--- a/Test_Suite/kiosk_newuser.xlsx
+++ b/Test_Suite/kiosk_newuser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB841D1-3E43-4F13-83D6-63D6B85D2398}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439D592F-F4DA-4BC2-A85D-CCBB6689B11A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,6 +620,9 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C10" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">

--- a/Test_Suite/kiosk_newuser.xlsx
+++ b/Test_Suite/kiosk_newuser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439D592F-F4DA-4BC2-A85D-CCBB6689B11A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C315ECD-1FB6-4E96-92F6-C1E712BE70EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1065" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>CheckPoint</t>
   </si>
@@ -99,7 +99,7 @@
   </si>
   <si>
     <r>
-      <t>EasyshellLib.getElement(</t>
+      <t>EasyshellLib.CommonUtils.SwitchUser(</t>
     </r>
     <r>
       <rPr>
@@ -109,7 +109,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>"MAIN_WINDOW"</t>
+      <t>'standard_admin'</t>
     </r>
     <r>
       <rPr>
@@ -118,12 +118,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>).Exists()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>EasyshellLib.CommonUtils.SwitchUser(</t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -133,7 +128,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>'standard_admin'</t>
+      <t>'test'</t>
     </r>
     <r>
       <rPr>
@@ -142,27 +137,14 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>'test'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>EasyShellTest().check_main_window(True)</t>
+  </si>
+  <si>
+    <t>EasyShellTest().check_main_window(False)</t>
   </si>
 </sst>
 </file>
@@ -523,19 +505,19 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -557,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -565,7 +547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -573,7 +555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -581,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -589,23 +571,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -613,18 +595,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -632,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
